--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Ror1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Ror1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.068624</v>
+      </c>
+      <c r="H2">
+        <v>0.205872</v>
+      </c>
+      <c r="I2">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="J2">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.06488733333333334</v>
-      </c>
-      <c r="H2">
-        <v>0.194662</v>
-      </c>
-      <c r="I2">
-        <v>0.01118619931635934</v>
-      </c>
-      <c r="J2">
-        <v>0.01123574233808859</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.652898</v>
+        <v>0.1765736666666667</v>
       </c>
       <c r="N2">
-        <v>1.958694</v>
+        <v>0.529721</v>
       </c>
       <c r="O2">
-        <v>0.02744622575406063</v>
+        <v>0.0117868834388192</v>
       </c>
       <c r="P2">
-        <v>0.03259170436333324</v>
+        <v>0.01261280266579839</v>
       </c>
       <c r="Q2">
-        <v>0.04236481015866667</v>
+        <v>0.01211719130133333</v>
       </c>
       <c r="R2">
-        <v>0.381283291428</v>
+        <v>0.109054721712</v>
       </c>
       <c r="S2">
-        <v>0.0003070189517667172</v>
+        <v>0.0001412204235756502</v>
       </c>
       <c r="T2">
-        <v>0.0003661919925855698</v>
+        <v>0.0001511158860767165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>35.583172</v>
       </c>
       <c r="O3">
-        <v>0.4986096714226771</v>
+        <v>0.7917652891757265</v>
       </c>
       <c r="P3">
-        <v>0.5920864729935545</v>
+        <v>0.847245109518336</v>
       </c>
       <c r="Q3">
-        <v>0.7696323808737779</v>
+        <v>0.8139531984426667</v>
       </c>
       <c r="R3">
-        <v>6.926691427864001</v>
+        <v>7.325578785984</v>
       </c>
       <c r="S3">
-        <v>0.005577547165598508</v>
+        <v>0.009486259034482714</v>
       </c>
       <c r="T3">
-        <v>0.006652531052423226</v>
+        <v>0.01015097110780998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +643,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.068624</v>
+      </c>
+      <c r="H4">
+        <v>0.205872</v>
+      </c>
+      <c r="I4">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="J4">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.06488733333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.194662</v>
-      </c>
-      <c r="I4">
-        <v>0.01118619931635934</v>
-      </c>
-      <c r="J4">
-        <v>0.01123574233808859</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.007452333333333333</v>
+        <v>2.942891</v>
       </c>
       <c r="N4">
-        <v>0.022357</v>
+        <v>5.885782000000001</v>
       </c>
       <c r="O4">
-        <v>0.0003132777601726116</v>
+        <v>0.1964478273854543</v>
       </c>
       <c r="P4">
-        <v>0.0003720094789952086</v>
+        <v>0.1401420878158657</v>
       </c>
       <c r="Q4">
-        <v>0.0004835620371111111</v>
+        <v>0.201952951984</v>
       </c>
       <c r="R4">
-        <v>0.004352058333999999</v>
+        <v>1.211717711904</v>
       </c>
       <c r="S4">
-        <v>3.504387466673454E-06</v>
+        <v>0.002353670971456497</v>
       </c>
       <c r="T4">
-        <v>4.179802653316743E-06</v>
+        <v>0.001679063435628168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>5.659039666666668</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>16.977119</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>11.266854</v>
+        <v>0.1765736666666667</v>
       </c>
       <c r="N5">
-        <v>22.533708</v>
+        <v>0.529721</v>
       </c>
       <c r="O5">
-        <v>0.4736308250630895</v>
+        <v>0.0117868834388192</v>
       </c>
       <c r="P5">
-        <v>0.3749498131641171</v>
+        <v>0.01261280266579839</v>
       </c>
       <c r="Q5">
-        <v>0.7310761111160001</v>
+        <v>0.9992373837554446</v>
       </c>
       <c r="R5">
-        <v>4.386456666696001</v>
+        <v>8.993136453799002</v>
       </c>
       <c r="S5">
-        <v>0.005298128811527443</v>
+        <v>0.01164566301524355</v>
       </c>
       <c r="T5">
-        <v>0.004212839490426476</v>
+        <v>0.01246168677972167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +788,10 @@
         <v>16.977119</v>
       </c>
       <c r="I6">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J6">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.652898</v>
+        <v>11.86105733333333</v>
       </c>
       <c r="N6">
-        <v>1.958694</v>
+        <v>35.583172</v>
       </c>
       <c r="O6">
-        <v>0.02744622575406063</v>
+        <v>0.7917652891757265</v>
       </c>
       <c r="P6">
-        <v>0.03259170436333324</v>
+        <v>0.847245109518336</v>
       </c>
       <c r="Q6">
-        <v>3.694775680287334</v>
+        <v>67.12219393794089</v>
       </c>
       <c r="R6">
-        <v>33.252981122586</v>
+        <v>604.099745441468</v>
       </c>
       <c r="S6">
-        <v>0.02677614161674502</v>
+        <v>0.7822790301412438</v>
       </c>
       <c r="T6">
-        <v>0.03193681887051576</v>
+        <v>0.837094138410526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,412 +850,40 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.86105733333333</v>
+        <v>2.942891</v>
       </c>
       <c r="N7">
-        <v>35.583172</v>
+        <v>5.885782000000001</v>
       </c>
       <c r="O7">
-        <v>0.4986096714226771</v>
+        <v>0.1964478273854543</v>
       </c>
       <c r="P7">
-        <v>0.5920864729935545</v>
+        <v>0.1401420878158657</v>
       </c>
       <c r="Q7">
-        <v>67.12219393794091</v>
+        <v>16.65393690367634</v>
       </c>
       <c r="R7">
-        <v>604.0997454414681</v>
+        <v>99.92362142205802</v>
       </c>
       <c r="S7">
-        <v>0.4864363972345839</v>
+        <v>0.1940941564139978</v>
       </c>
       <c r="T7">
-        <v>0.5801893093063072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.659039666666668</v>
-      </c>
-      <c r="H8">
-        <v>16.977119</v>
-      </c>
-      <c r="I8">
-        <v>0.9755855634461335</v>
-      </c>
-      <c r="J8">
-        <v>0.9799063747781704</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.007452333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.022357</v>
-      </c>
-      <c r="O8">
-        <v>0.0003132777601726116</v>
-      </c>
-      <c r="P8">
-        <v>0.0003720094789952086</v>
-      </c>
-      <c r="Q8">
-        <v>0.04217304994255556</v>
-      </c>
-      <c r="R8">
-        <v>0.379557449483</v>
-      </c>
-      <c r="S8">
-        <v>0.00030562926017314</v>
-      </c>
-      <c r="T8">
-        <v>0.0003645344599453109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.659039666666668</v>
-      </c>
-      <c r="H9">
-        <v>16.977119</v>
-      </c>
-      <c r="I9">
-        <v>0.9755855634461335</v>
-      </c>
-      <c r="J9">
-        <v>0.9799063747781704</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.266854</v>
-      </c>
-      <c r="N9">
-        <v>22.533708</v>
-      </c>
-      <c r="O9">
-        <v>0.4736308250630895</v>
-      </c>
-      <c r="P9">
-        <v>0.3749498131641171</v>
-      </c>
-      <c r="Q9">
-        <v>63.75957370454201</v>
-      </c>
-      <c r="R9">
-        <v>382.5574422272521</v>
-      </c>
-      <c r="S9">
-        <v>0.4620673953346313</v>
-      </c>
-      <c r="T9">
-        <v>0.3674157121414023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.153465</v>
-      </c>
-      <c r="I10">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J10">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.652898</v>
-      </c>
-      <c r="N10">
-        <v>1.958694</v>
-      </c>
-      <c r="O10">
-        <v>0.02744622575406063</v>
-      </c>
-      <c r="P10">
-        <v>0.03259170436333324</v>
-      </c>
-      <c r="Q10">
-        <v>0.050098495785</v>
-      </c>
-      <c r="R10">
-        <v>0.30059097471</v>
-      </c>
-      <c r="S10">
-        <v>0.0003630651855488944</v>
-      </c>
-      <c r="T10">
-        <v>0.0002886935002319122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.153465</v>
-      </c>
-      <c r="I11">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J11">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>11.86105733333333</v>
-      </c>
-      <c r="N11">
-        <v>35.583172</v>
-      </c>
-      <c r="O11">
-        <v>0.4986096714226771</v>
-      </c>
-      <c r="P11">
-        <v>0.5920864729935545</v>
-      </c>
-      <c r="Q11">
-        <v>0.9101285818300002</v>
-      </c>
-      <c r="R11">
-        <v>5.460771490980001</v>
-      </c>
-      <c r="S11">
-        <v>0.006595727022494696</v>
-      </c>
-      <c r="T11">
-        <v>0.005244632634824108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.007452333333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.022357</v>
-      </c>
-      <c r="O12">
-        <v>0.0003132777601726116</v>
-      </c>
-      <c r="P12">
-        <v>0.0003720094789952086</v>
-      </c>
-      <c r="Q12">
-        <v>0.0005718361675</v>
-      </c>
-      <c r="R12">
-        <v>0.003431017005</v>
-      </c>
-      <c r="S12">
-        <v>4.144112532798196E-06</v>
-      </c>
-      <c r="T12">
-        <v>3.295216396581018E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.266854</v>
-      </c>
-      <c r="N13">
-        <v>22.533708</v>
-      </c>
-      <c r="O13">
-        <v>0.4736308250630895</v>
-      </c>
-      <c r="P13">
-        <v>0.3749498131641171</v>
-      </c>
-      <c r="Q13">
-        <v>0.8645338745550001</v>
-      </c>
-      <c r="R13">
-        <v>3.45813549822</v>
-      </c>
-      <c r="S13">
-        <v>0.006265300916930827</v>
-      </c>
-      <c r="T13">
-        <v>0.00332126153228827</v>
+        <v>0.1384630243802375</v>
       </c>
     </row>
   </sheetData>
